--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>305.0265160000001</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H2">
-        <v>915.0795480000002</v>
+        <v>0.028954</v>
       </c>
       <c r="I2">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="J2">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.175804666666667</v>
+        <v>5.828378333333333</v>
       </c>
       <c r="N2">
-        <v>21.527414</v>
+        <v>17.485135</v>
       </c>
       <c r="O2">
-        <v>0.1618789277039843</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="P2">
-        <v>0.1618789277039842</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="Q2">
-        <v>2188.810696969875</v>
+        <v>0.05625162208777777</v>
       </c>
       <c r="R2">
-        <v>19699.29627272888</v>
+        <v>0.50626459879</v>
       </c>
       <c r="S2">
-        <v>0.1618603344867963</v>
+        <v>0.1211336982040711</v>
       </c>
       <c r="T2">
-        <v>0.1618603344867963</v>
+        <v>0.1211336982040711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>305.0265160000001</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H3">
-        <v>915.0795480000002</v>
+        <v>0.028954</v>
       </c>
       <c r="I3">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="J3">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>74.764876</v>
       </c>
       <c r="O3">
-        <v>0.5622067730383848</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="P3">
-        <v>0.5622067730383847</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="Q3">
-        <v>7601.756548484008</v>
+        <v>0.2405269133004445</v>
       </c>
       <c r="R3">
-        <v>68415.80893635606</v>
+        <v>2.164742219704</v>
       </c>
       <c r="S3">
-        <v>0.5621421986506995</v>
+        <v>0.5179568774075123</v>
       </c>
       <c r="T3">
-        <v>0.5621421986506994</v>
+        <v>0.5179568774075123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>305.0265160000001</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H4">
-        <v>915.0795480000002</v>
+        <v>0.028954</v>
       </c>
       <c r="I4">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="J4">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.23078966666667</v>
+        <v>10.47292833333333</v>
       </c>
       <c r="N4">
-        <v>36.692369</v>
+        <v>31.418785</v>
       </c>
       <c r="O4">
-        <v>0.2759142992576309</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="P4">
-        <v>0.2759142992576308</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="Q4">
-        <v>3730.715159952135</v>
+        <v>0.1010777223211111</v>
       </c>
       <c r="R4">
-        <v>33576.43643956922</v>
+        <v>0.90969950089</v>
       </c>
       <c r="S4">
-        <v>0.2758826080760538</v>
+        <v>0.2176633820744648</v>
       </c>
       <c r="T4">
-        <v>0.2758826080760537</v>
+        <v>0.2176633820744648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.035039</v>
+        <v>0.001613666666666667</v>
       </c>
       <c r="H5">
-        <v>0.105117</v>
+        <v>0.004841</v>
       </c>
       <c r="I5">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="J5">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.175804666666667</v>
+        <v>5.828378333333333</v>
       </c>
       <c r="N5">
-        <v>21.527414</v>
+        <v>17.485135</v>
       </c>
       <c r="O5">
-        <v>0.1618789277039843</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="P5">
-        <v>0.1618789277039842</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="Q5">
-        <v>0.2514330197153333</v>
+        <v>0.009405059837222222</v>
       </c>
       <c r="R5">
-        <v>2.262897177438</v>
+        <v>0.084645538535</v>
       </c>
       <c r="S5">
-        <v>1.859321718798655E-05</v>
+        <v>0.02025309915748803</v>
       </c>
       <c r="T5">
-        <v>1.859321718798655E-05</v>
+        <v>0.02025309915748803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.035039</v>
+        <v>0.001613666666666667</v>
       </c>
       <c r="H6">
-        <v>0.105117</v>
+        <v>0.004841</v>
       </c>
       <c r="I6">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="J6">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>74.764876</v>
       </c>
       <c r="O6">
-        <v>0.5622067730383848</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="P6">
-        <v>0.5622067730383847</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="Q6">
-        <v>0.8732288300546668</v>
+        <v>0.04021519607955556</v>
       </c>
       <c r="R6">
-        <v>7.859059470492</v>
+        <v>0.361936764716</v>
       </c>
       <c r="S6">
-        <v>6.457438768543602E-05</v>
+        <v>0.08660044358395272</v>
       </c>
       <c r="T6">
-        <v>6.457438768543601E-05</v>
+        <v>0.08660044358395272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.035039</v>
+        <v>0.001613666666666667</v>
       </c>
       <c r="H7">
-        <v>0.105117</v>
+        <v>0.004841</v>
       </c>
       <c r="I7">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="J7">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.23078966666667</v>
+        <v>10.47292833333333</v>
       </c>
       <c r="N7">
-        <v>36.692369</v>
+        <v>31.418785</v>
       </c>
       <c r="O7">
-        <v>0.2759142992576309</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="P7">
-        <v>0.2759142992576308</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="Q7">
-        <v>0.4285546391303333</v>
+        <v>0.01689981535388889</v>
       </c>
       <c r="R7">
-        <v>3.856991752173</v>
+        <v>0.152098338185</v>
       </c>
       <c r="S7">
-        <v>3.169118157706934E-05</v>
+        <v>0.03639249957251103</v>
       </c>
       <c r="T7">
-        <v>3.169118157706934E-05</v>
+        <v>0.03639249957251103</v>
       </c>
     </row>
   </sheetData>
